--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,371 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3669</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.01496</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03479</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.08814</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.74251</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.07235</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.45327</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.16743</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.61466</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.03831</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.09138</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.92516</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.99578</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.18572</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.71038</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.32649</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.11425</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>0.01161</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.27852</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.15899</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.82546</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.15238</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.32385</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.40957</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>23.52975</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.05949</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.01224</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.7642099999999999</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.87085</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3.98014</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.08029</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.08499</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.72612</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1.62154</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.1549</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.07151</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.72131</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.0667</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.10667</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.27793</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.38123</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.37946</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.22106</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.23468</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.7771</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.12804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.10924</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.25478</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.22518</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.6075</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.85622</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.69147</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.18486</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.03901</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.12356</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.29686</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.20337</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.44818</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.06134</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.34959</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.71671</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>33.45307</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.00328</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.01199</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.24465</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.2233</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4.43904</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.06593</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.16813</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.46258</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1.12124</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.06323</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.18495</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.99005</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.81503</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2263</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01872</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.43776</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.73851</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.44447</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.47302</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.27889</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.93851</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.18052</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.13731</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.78664</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.52315</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.20064</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.14286</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.59545</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.24176</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>0.13181</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.41186</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.5168199999999999</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.44719</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.70271</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.34951</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.87235</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>39.68211</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3.41786</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.05293</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1.19898</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1.29117</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>5.374</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.20695</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.19794</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2.09291</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1.52135</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2.41825</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.30793</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
